--- a/src/main/resources/InputFiles/input-to-xml.xlsx
+++ b/src/main/resources/InputFiles/input-to-xml.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lperuman\Documents\RatingPOC\src\main\resources\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring-tool-suite-3.9.9\Final Demo POC\InsurancePOC\src\main\resources\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E53B68-6AD3-40C9-8EEE-F8CF3FA42BDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A890DB-7CDE-4029-867D-3BB4CAE08CE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54A18F07-28D5-42C7-B2F2-FBA580C51743}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>COMP_Deductible</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>RMGR29FSPYC</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>TS_001</t>
   </si>
 </sst>
 </file>
@@ -484,122 +490,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB80A766-DEC4-4E77-94BE-DCC6D657AE6D}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>100000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>300000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>100000</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>50000</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>100000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>25000</v>
-      </c>
-      <c r="L2" s="1">
-        <v>500</v>
       </c>
       <c r="M2" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="N2" s="1">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
